--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_SOx.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.9423132681968444</v>
+        <v>0.2094029484881877</v>
       </c>
       <c r="C2">
-        <v>0.02444256</v>
+        <v>0.005431679999999999</v>
       </c>
       <c r="D2">
-        <v>0.1263469370844882</v>
+        <v>0.02807709712988626</v>
       </c>
       <c r="E2">
-        <v>0.1305431867815622</v>
+        <v>0.0290095970625694</v>
       </c>
       <c r="F2">
-        <v>0.1277640253173277</v>
+        <v>0.02839200562607282</v>
       </c>
       <c r="G2">
-        <v>0.4587296733148255</v>
+        <v>0.1019399274032946</v>
       </c>
       <c r="H2">
-        <v>0.05256210661162788</v>
+        <v>0.01168046813591731</v>
       </c>
       <c r="I2">
-        <v>1.862701757306676</v>
+        <v>0.4139337238459281</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.9685233061201998</v>
+        <v>0.2152274013600445</v>
       </c>
       <c r="C3">
-        <v>0.03081888</v>
+        <v>0.00684864</v>
       </c>
       <c r="D3">
-        <v>0.09626433301675277</v>
+        <v>0.02139207400372287</v>
       </c>
       <c r="E3">
-        <v>0.09921282195398731</v>
+        <v>0.02204729376755273</v>
       </c>
       <c r="F3">
-        <v>0.1230668185041906</v>
+        <v>0.02734818188982013</v>
       </c>
       <c r="G3">
-        <v>0.3851063924124459</v>
+        <v>0.08557919831387695</v>
       </c>
       <c r="H3">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I3">
-        <v>1.735843868639844</v>
+        <v>0.3857430819199654</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.9897409558676784</v>
+        <v>0.2199424346372617</v>
       </c>
       <c r="C4">
-        <v>0.03400704</v>
+        <v>0.007557119999999999</v>
       </c>
       <c r="D4">
-        <v>0.0691899893557912</v>
+        <v>0.01537555319017581</v>
       </c>
       <c r="E4">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F4">
-        <v>0.1164907289657988</v>
+        <v>0.02588682865906641</v>
       </c>
       <c r="G4">
-        <v>0.192553196206223</v>
+        <v>0.04278959915693847</v>
       </c>
       <c r="H4">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I4">
-        <v>1.570598141280584</v>
+        <v>0.3490218091734628</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.074611554857592</v>
+        <v>0.2388025677461317</v>
       </c>
       <c r="C5">
-        <v>0.03081888</v>
+        <v>0.00684864</v>
       </c>
       <c r="D5">
-        <v>0.1082973746438469</v>
+        <v>0.0240660832541882</v>
       </c>
       <c r="E5">
-        <v>0.1618735516091371</v>
+        <v>0.03597190035758604</v>
       </c>
       <c r="F5">
-        <v>0.08642860536172164</v>
+        <v>0.01920635674704926</v>
       </c>
       <c r="G5">
-        <v>0.1245932446040268</v>
+        <v>0.0276873876897837</v>
       </c>
       <c r="H5">
-        <v>0.05256210661162788</v>
+        <v>0.01168046813591731</v>
       </c>
       <c r="I5">
-        <v>1.639185317687953</v>
+        <v>0.3642634039306562</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.289284246420317</v>
+        <v>0.2865076103156261</v>
       </c>
       <c r="C6">
-        <v>0.03506976000000001</v>
+        <v>0.007793279999999995</v>
       </c>
       <c r="D6">
-        <v>0.09927259342352641</v>
+        <v>0.0220605763163392</v>
       </c>
       <c r="E6">
-        <v>0.1148780043677748</v>
+        <v>0.02552844541506106</v>
       </c>
       <c r="F6">
-        <v>0.06857921947180098</v>
+        <v>0.01523982654928909</v>
       </c>
       <c r="G6">
-        <v>0.07362328090237945</v>
+        <v>0.01636072908941764</v>
       </c>
       <c r="H6">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I6">
-        <v>1.693847631238706</v>
+        <v>0.3764105847197124</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.118294951396519</v>
+        <v>0.2485099891992266</v>
       </c>
       <c r="C7">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D7">
-        <v>0.09626433301675277</v>
+        <v>0.02139207400372287</v>
       </c>
       <c r="E7">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F7">
-        <v>0.03945653723035118</v>
+        <v>0.008768119384522488</v>
       </c>
       <c r="G7">
-        <v>0.05663329300183031</v>
+        <v>0.01258517622262897</v>
       </c>
       <c r="H7">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I7">
-        <v>1.513989142792547</v>
+        <v>0.3364420317316774</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.892389386438071</v>
+        <v>0.1983087525417936</v>
       </c>
       <c r="C8">
-        <v>0.02763072</v>
+        <v>0.006140159999999997</v>
       </c>
       <c r="D8">
-        <v>0.05114042691514994</v>
+        <v>0.01136453931447775</v>
       </c>
       <c r="E8">
-        <v>0.1514300966666122</v>
+        <v>0.03365113259258048</v>
       </c>
       <c r="F8">
-        <v>0.04509318540611564</v>
+        <v>0.0100207078680257</v>
       </c>
       <c r="G8">
-        <v>0.06795995160219646</v>
+        <v>0.01510221146715474</v>
       </c>
       <c r="H8">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I8">
-        <v>1.261924820333959</v>
+        <v>0.2804277378519909</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.7838049436127391</v>
+        <v>0.1741788763583866</v>
       </c>
       <c r="C9">
-        <v>0.04250879999999999</v>
+        <v>0.009446400000000001</v>
       </c>
       <c r="D9">
-        <v>0.06016520813547058</v>
+        <v>0.01337004625232679</v>
       </c>
       <c r="E9">
-        <v>0.2297560087355496</v>
+        <v>0.05105689083012212</v>
       </c>
       <c r="F9">
-        <v>0.02724379951619489</v>
+        <v>0.006054177670265523</v>
       </c>
       <c r="G9">
-        <v>0.09627659810311148</v>
+        <v>0.02139479957846924</v>
       </c>
       <c r="H9">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I9">
-        <v>1.252895884755973</v>
+        <v>0.2784213077235496</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.6901976653150391</v>
+        <v>0.1533772589588979</v>
       </c>
       <c r="C10">
-        <v>0.01806624</v>
+        <v>0.004014719999999999</v>
       </c>
       <c r="D10">
-        <v>0.04512390610160293</v>
+        <v>0.01002753468924509</v>
       </c>
       <c r="E10">
-        <v>0.1409866417240872</v>
+        <v>0.03133036482757495</v>
       </c>
       <c r="F10">
-        <v>0.02630435815356747</v>
+        <v>0.005845412923014994</v>
       </c>
       <c r="G10">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="H10">
-        <v>0.03942157995872091</v>
+        <v>0.00876035110193798</v>
       </c>
       <c r="I10">
-        <v>1.011070354954665</v>
+        <v>0.224682301101037</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.3894062777184306</v>
+        <v>0.08653472838187354</v>
       </c>
       <c r="C11">
-        <v>0.008501760000000001</v>
+        <v>0.00188928</v>
       </c>
       <c r="D11">
-        <v>0.01504130203386764</v>
+        <v>0.003342511563081699</v>
       </c>
       <c r="E11">
-        <v>0.09399109448272484</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F11">
-        <v>0.02348603406568521</v>
+        <v>0.005219118681263382</v>
       </c>
       <c r="G11">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="H11">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I11">
-        <v>0.5915944314338908</v>
+        <v>0.1314654292075314</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.2670927674094364</v>
+        <v>0.0593539483132081</v>
       </c>
       <c r="C12">
-        <v>0.008501760000000001</v>
+        <v>0.00188928</v>
       </c>
       <c r="D12">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="E12">
-        <v>0.03655209229883743</v>
+        <v>0.008122687177519426</v>
       </c>
       <c r="F12">
-        <v>0.01127329635152891</v>
+        <v>0.002505176967006425</v>
       </c>
       <c r="G12">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="H12">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I12">
-        <v>0.3712468015405361</v>
+        <v>0.08249928923123025</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1647488098039516</v>
+        <v>0.03661084662310034</v>
       </c>
       <c r="C13">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D13">
-        <v>0.003008260406773524</v>
+        <v>0.0006685023126163396</v>
       </c>
       <c r="F13">
-        <v>0.01033385498890151</v>
+        <v>0.002296412219755889</v>
       </c>
       <c r="G13">
-        <v>0.01698998790054912</v>
+        <v>0.003775552866788684</v>
       </c>
       <c r="H13">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I13">
-        <v>0.2090902164266293</v>
+        <v>0.04646449253925092</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1335463837047182</v>
+        <v>0.02967697415660405</v>
       </c>
       <c r="C14">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D14">
-        <v>0.01504130203386764</v>
+        <v>0.003342511563081699</v>
       </c>
       <c r="F14">
-        <v>0.01315217907678374</v>
+        <v>0.002922706461507497</v>
       </c>
       <c r="G14">
-        <v>0.01698998790054912</v>
+        <v>0.003775552866788684</v>
       </c>
       <c r="H14">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I14">
-        <v>0.2014348593688257</v>
+        <v>0.04476330208196126</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.09984776351754646</v>
+        <v>0.02218839189278811</v>
       </c>
       <c r="C15">
-        <v>0.005313599999999998</v>
+        <v>0.0011808</v>
       </c>
       <c r="D15">
-        <v>0.006016520813547048</v>
+        <v>0.001337004625232679</v>
       </c>
       <c r="F15">
-        <v>0.008454972263646688</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G15">
-        <v>0.03397997580109823</v>
+        <v>0.007551105733577368</v>
       </c>
       <c r="I15">
-        <v>0.1536128323958384</v>
+        <v>0.03413618497685297</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.08611869603388375</v>
+        <v>0.01913748800752973</v>
       </c>
       <c r="C16">
-        <v>0.005313599999999998</v>
+        <v>0.0011808</v>
       </c>
       <c r="D16">
-        <v>0.006016520813547048</v>
+        <v>0.001337004625232679</v>
       </c>
       <c r="E16">
-        <v>0.02610863735631243</v>
+        <v>0.005801919412513882</v>
       </c>
       <c r="F16">
-        <v>0.007515530901019277</v>
+        <v>0.001670117978004283</v>
       </c>
       <c r="G16">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I16">
-        <v>0.1593896316056777</v>
+        <v>0.03541991813459506</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.1647488098039516</v>
+        <v>0.03661084662310034</v>
       </c>
       <c r="C17">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="D17">
-        <v>0.02406608325418819</v>
+        <v>0.005348018500930717</v>
       </c>
       <c r="E17">
-        <v>0.00522172747126249</v>
+        <v>0.001160383882502776</v>
       </c>
       <c r="F17">
-        <v>0.01503106180203855</v>
+        <v>0.003340235956008565</v>
       </c>
       <c r="G17">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I17">
-        <v>0.243760648832356</v>
+        <v>0.05416903307385688</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.5491626993465053</v>
+        <v>0.1220361554103344</v>
       </c>
       <c r="C18">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D18">
-        <v>0.0691899893557912</v>
+        <v>0.01537555319017581</v>
       </c>
       <c r="E18">
-        <v>0.04177381977009992</v>
+        <v>0.009283071060022205</v>
       </c>
       <c r="F18">
-        <v>0.04603262676874306</v>
+        <v>0.01022947261527624</v>
       </c>
       <c r="G18">
-        <v>0.1076032567034776</v>
+        <v>0.02391183482299503</v>
       </c>
       <c r="H18">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I18">
-        <v>0.8298971352710707</v>
+        <v>0.1844215856157934</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.8711717366905926</v>
+        <v>0.193593719264576</v>
       </c>
       <c r="C19">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D19">
-        <v>0.07821477057611168</v>
+        <v>0.01738106012802482</v>
       </c>
       <c r="E19">
-        <v>0.224534281264287</v>
+        <v>0.04989650694761939</v>
       </c>
       <c r="F19">
-        <v>0.07797363309807492</v>
+        <v>0.01732747402179444</v>
       </c>
       <c r="G19">
-        <v>0.1642365497053079</v>
+        <v>0.03649701104562398</v>
       </c>
       <c r="H19">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I19">
-        <v>1.443280801313735</v>
+        <v>0.3207290669586076</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.058386293285992</v>
+        <v>0.2351969540635537</v>
       </c>
       <c r="C20">
-        <v>0.01806624</v>
+        <v>0.004014719999999999</v>
       </c>
       <c r="D20">
-        <v>0.06317346854224412</v>
+        <v>0.01403854856494313</v>
       </c>
       <c r="E20">
-        <v>0.1984256439079746</v>
+        <v>0.04409458753510546</v>
       </c>
       <c r="F20">
-        <v>0.06106368857078159</v>
+        <v>0.0135697085712848</v>
       </c>
       <c r="G20">
-        <v>0.1245932446040268</v>
+        <v>0.0276873876897837</v>
       </c>
       <c r="I20">
-        <v>1.523708578911019</v>
+        <v>0.3386019064246708</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.140760698187968</v>
+        <v>0.2535023773751036</v>
       </c>
       <c r="C21">
-        <v>0.02444256</v>
+        <v>0.005431679999999999</v>
       </c>
       <c r="D21">
-        <v>0.1022808538302999</v>
+        <v>0.02272907862895551</v>
       </c>
       <c r="E21">
-        <v>0.1618735516091371</v>
+        <v>0.03597190035758604</v>
       </c>
       <c r="F21">
-        <v>0.07327642628493793</v>
+        <v>0.01628365028554177</v>
       </c>
       <c r="G21">
-        <v>0.1529098911049417</v>
+        <v>0.03397997580109823</v>
       </c>
       <c r="H21">
-        <v>0.05913236993808137</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I21">
-        <v>1.714676350955367</v>
+        <v>0.3810391891011922</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.004718120395311</v>
+        <v>0.2232706934211801</v>
       </c>
       <c r="C22">
-        <v>0.03400704</v>
+        <v>0.007557119999999999</v>
       </c>
       <c r="D22">
-        <v>0.1323634578980352</v>
+        <v>0.02941410175511895</v>
       </c>
       <c r="E22">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F22">
-        <v>0.1202484944163084</v>
+        <v>0.02672188764806852</v>
       </c>
       <c r="G22">
-        <v>0.3454630873111646</v>
+        <v>0.07676957495803666</v>
       </c>
       <c r="H22">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I22">
-        <v>1.798846167579459</v>
+        <v>0.399743592795435</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.8387212135473904</v>
+        <v>0.18638249189942</v>
       </c>
       <c r="C23">
-        <v>0.03081888</v>
+        <v>0.00684864</v>
       </c>
       <c r="D23">
-        <v>0.06317346854224412</v>
+        <v>0.01403854856494313</v>
       </c>
       <c r="E23">
-        <v>0.1200997318390372</v>
+        <v>0.02668882929756385</v>
       </c>
       <c r="F23">
-        <v>0.1268245839547003</v>
+        <v>0.02818324087882229</v>
       </c>
       <c r="G23">
-        <v>0.441739685414276</v>
+        <v>0.09816437453650578</v>
       </c>
       <c r="H23">
-        <v>0.05256210661162788</v>
+        <v>0.01168046813591731</v>
       </c>
       <c r="I23">
-        <v>1.673939669909276</v>
+        <v>0.3719865933131724</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.7800606524808318</v>
+        <v>0.1733468116624069</v>
       </c>
       <c r="C24">
-        <v>0.03081888</v>
+        <v>0.00684864</v>
       </c>
       <c r="D24">
-        <v>0.07219824976256468</v>
+        <v>0.01604405550279214</v>
       </c>
       <c r="E24">
-        <v>0.1148780043677748</v>
+        <v>0.02552844541506106</v>
       </c>
       <c r="F24">
-        <v>0.1211879357789358</v>
+        <v>0.02693065239531907</v>
       </c>
       <c r="G24">
-        <v>0.5266896249170223</v>
+        <v>0.1170421388704493</v>
       </c>
       <c r="H24">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I24">
-        <v>1.678684663939397</v>
+        <v>0.3730410364309768</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.8374731165034204</v>
+        <v>0.1861051370007602</v>
       </c>
       <c r="C25">
-        <v>0.04144608</v>
+        <v>0.009210240000000001</v>
       </c>
       <c r="D25">
-        <v>0.08723955179643231</v>
+        <v>0.01938656706587385</v>
       </c>
       <c r="E25">
-        <v>0.1200997318390372</v>
+        <v>0.02668882929756385</v>
       </c>
       <c r="F25">
-        <v>0.09958078443850535</v>
+        <v>0.02212906320855674</v>
       </c>
       <c r="G25">
-        <v>0.5436796128175717</v>
+        <v>0.1208176917372379</v>
       </c>
       <c r="H25">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I25">
-        <v>1.736089140721421</v>
+        <v>0.3857975868269822</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.9323284918450897</v>
+        <v>0.2071841092989087</v>
       </c>
       <c r="C26">
-        <v>0.04994784000000001</v>
+        <v>0.01109952</v>
       </c>
       <c r="D26">
-        <v>0.114313895457394</v>
+        <v>0.02540308787942089</v>
       </c>
       <c r="E26">
-        <v>0.1096562768965122</v>
+        <v>0.02436806153255829</v>
       </c>
       <c r="F26">
-        <v>0.1164907289657988</v>
+        <v>0.02588682865906641</v>
       </c>
       <c r="G26">
-        <v>0.5040363077162896</v>
+        <v>0.1120080683813978</v>
       </c>
       <c r="H26">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I26">
-        <v>1.853054594186898</v>
+        <v>0.4117899098193107</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.9210956184493649</v>
+        <v>0.2046879152109702</v>
       </c>
       <c r="C27">
-        <v>0.04569695999999999</v>
+        <v>0.01015488</v>
       </c>
       <c r="D27">
-        <v>0.1052891142370734</v>
+        <v>0.02339758094157188</v>
       </c>
       <c r="E27">
-        <v>0.09921282195398731</v>
+        <v>0.02204729376755273</v>
       </c>
       <c r="F27">
-        <v>0.1174301703284262</v>
+        <v>0.02609559340631692</v>
       </c>
       <c r="G27">
-        <v>0.3454630873111646</v>
+        <v>0.07676957495803666</v>
       </c>
       <c r="H27">
-        <v>0.1116944765497093</v>
+        <v>0.02482099478882428</v>
       </c>
       <c r="I27">
-        <v>1.745882248829726</v>
+        <v>0.3879738330732727</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.9610347238563851</v>
+        <v>0.2135632719680853</v>
       </c>
       <c r="C28">
-        <v>0.04463424000000001</v>
+        <v>0.009918720000000002</v>
       </c>
       <c r="D28">
-        <v>0.114313895457394</v>
+        <v>0.02540308787942089</v>
       </c>
       <c r="E28">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F28">
-        <v>0.1136724048779165</v>
+        <v>0.02526053441731478</v>
       </c>
       <c r="G28">
-        <v>0.4247496975137269</v>
+        <v>0.09438882166971718</v>
       </c>
       <c r="H28">
-        <v>0.04599184328517441</v>
+        <v>0.01022040961892764</v>
       </c>
       <c r="I28">
-        <v>1.829718264300897</v>
+        <v>0.4066040587335324</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.8986298716579175</v>
+        <v>0.1996955270350929</v>
       </c>
       <c r="C29">
-        <v>0.03825792</v>
+        <v>0.008501760000000001</v>
       </c>
       <c r="D29">
-        <v>0.1022808538302999</v>
+        <v>0.02272907862895551</v>
       </c>
       <c r="E29">
-        <v>0.1409866417240872</v>
+        <v>0.03133036482757495</v>
       </c>
       <c r="F29">
-        <v>0.07797363309807492</v>
+        <v>0.01732747402179444</v>
       </c>
       <c r="G29">
-        <v>0.3454630873111646</v>
+        <v>0.07676957495803666</v>
       </c>
       <c r="H29">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I29">
-        <v>1.636443324253812</v>
+        <v>0.3636540720564028</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.022191479010881</v>
+        <v>0.2271536620024182</v>
       </c>
       <c r="C30">
-        <v>0.01700352</v>
+        <v>0.003778559999999999</v>
       </c>
       <c r="D30">
-        <v>0.1173221558641675</v>
+        <v>0.02607159019203724</v>
       </c>
       <c r="E30">
-        <v>0.09921282195398731</v>
+        <v>0.02204729376755273</v>
       </c>
       <c r="F30">
-        <v>0.07515530901019273</v>
+        <v>0.01670117978004283</v>
       </c>
       <c r="G30">
-        <v>0.3284730994106158</v>
+        <v>0.07299402209124796</v>
       </c>
       <c r="H30">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I30">
-        <v>1.672498911902751</v>
+        <v>0.3716664248672782</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.995981441087525</v>
+        <v>0.2213292091305613</v>
       </c>
       <c r="C31">
-        <v>0.00212544</v>
+        <v>0.0004723199999999999</v>
       </c>
       <c r="D31">
-        <v>0.05114042691514994</v>
+        <v>0.01136453931447775</v>
       </c>
       <c r="E31">
-        <v>0.1879821889654497</v>
+        <v>0.04177381977009992</v>
       </c>
       <c r="F31">
-        <v>0.03945653723035118</v>
+        <v>0.008768119384522488</v>
       </c>
       <c r="G31">
-        <v>0.2548498185082363</v>
+        <v>0.05663329300183031</v>
       </c>
       <c r="I31">
-        <v>1.531535852706712</v>
+        <v>0.3403413006014918</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.8861489012182244</v>
+        <v>0.1969219780484943</v>
       </c>
       <c r="C32">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D32">
-        <v>0.06618172894901758</v>
+        <v>0.01470705087755948</v>
       </c>
       <c r="E32">
-        <v>0.2193125537930244</v>
+        <v>0.04873612306511657</v>
       </c>
       <c r="F32">
-        <v>0.04133541995560603</v>
+        <v>0.009185648879023555</v>
       </c>
       <c r="G32">
-        <v>0.1982165255064061</v>
+        <v>0.04404811677920138</v>
       </c>
       <c r="I32">
-        <v>1.420759609422279</v>
+        <v>0.3157243576493953</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.7064229268866407</v>
+        <v>0.1569828726414758</v>
       </c>
       <c r="C33">
-        <v>0.01700352</v>
+        <v>0.003778559999999999</v>
       </c>
       <c r="D33">
-        <v>0.0691899893557912</v>
+        <v>0.01537555319017581</v>
       </c>
       <c r="E33">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F33">
-        <v>0.02348603406568521</v>
+        <v>0.005219118681263382</v>
       </c>
       <c r="G33">
-        <v>0.08494993950274543</v>
+        <v>0.01887776433394342</v>
       </c>
       <c r="I33">
-        <v>1.08381287130505</v>
+        <v>0.2408473047344555</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.5566512816103214</v>
+        <v>0.1237002848022937</v>
       </c>
       <c r="C34">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D34">
-        <v>0.04211564569482933</v>
+        <v>0.009359032376628754</v>
       </c>
       <c r="E34">
-        <v>0.1514300966666122</v>
+        <v>0.03365113259258048</v>
       </c>
       <c r="F34">
-        <v>0.01221273771415632</v>
+        <v>0.002713941714256961</v>
       </c>
       <c r="G34">
-        <v>0.07928661020256238</v>
+        <v>0.01761924671168054</v>
       </c>
       <c r="I34">
-        <v>0.8512608518884816</v>
+        <v>0.1891690781974404</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.3656924338830138</v>
+        <v>0.08126498530733638</v>
       </c>
       <c r="C35">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D35">
-        <v>0.02105782284741466</v>
+        <v>0.004679516188314377</v>
       </c>
       <c r="E35">
-        <v>0.1044345494252497</v>
+        <v>0.02320767765005553</v>
       </c>
       <c r="F35">
-        <v>0.01972826861517559</v>
+        <v>0.004384059692261244</v>
       </c>
       <c r="G35">
-        <v>0.1189299153038437</v>
+        <v>0.02642887006752082</v>
       </c>
       <c r="I35">
-        <v>0.6372820300746975</v>
+        <v>0.1416182289054883</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2621003792335596</v>
+        <v>0.05824452871856875</v>
       </c>
       <c r="C36">
-        <v>0.00425088</v>
+        <v>0.0009446399999999998</v>
       </c>
       <c r="D36">
-        <v>0.01804956244064117</v>
+        <v>0.004011013875698034</v>
       </c>
       <c r="E36">
-        <v>0.04177381977009992</v>
+        <v>0.009283071060022205</v>
       </c>
       <c r="F36">
-        <v>0.01409162043941115</v>
+        <v>0.003131471208758032</v>
       </c>
       <c r="G36">
-        <v>0.0622966223020134</v>
+        <v>0.01384369384489185</v>
       </c>
       <c r="H36">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I36">
-        <v>0.4091331475121787</v>
+        <v>0.09091847722492852</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1585083245841048</v>
+        <v>0.03522407212980108</v>
       </c>
       <c r="C37">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="E37">
-        <v>0.00522172747126249</v>
+        <v>0.001160383882502776</v>
       </c>
       <c r="F37">
-        <v>0.01409162043941115</v>
+        <v>0.003131471208758032</v>
       </c>
       <c r="G37">
-        <v>0.06795995160219646</v>
+        <v>0.01510221146715474</v>
       </c>
       <c r="I37">
-        <v>0.2489697840969749</v>
+        <v>0.05532661868821662</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.1123287339572397</v>
+        <v>0.02496194087938661</v>
       </c>
       <c r="C38">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="D38">
-        <v>0.009024781220320586</v>
+        <v>0.002005506937849017</v>
       </c>
       <c r="E38">
-        <v>0.00522172747126249</v>
+        <v>0.001160383882502776</v>
       </c>
       <c r="F38">
-        <v>0.01503106180203855</v>
+        <v>0.003340235956008565</v>
       </c>
       <c r="G38">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="I38">
-        <v>0.1706359416515935</v>
+        <v>0.03791909814479856</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.07738201672609846</v>
+        <v>0.01719600371691077</v>
       </c>
       <c r="C39">
-        <v>0.00212544</v>
+        <v>0.0004723199999999999</v>
       </c>
       <c r="D39">
-        <v>0.01504130203386764</v>
+        <v>0.003342511563081699</v>
       </c>
       <c r="F39">
-        <v>0.001878882725254819</v>
+        <v>0.0004175294945010707</v>
       </c>
       <c r="G39">
-        <v>0.05663329300183031</v>
+        <v>0.01258517622262897</v>
       </c>
       <c r="I39">
-        <v>0.1530609344870512</v>
+        <v>0.0340135409971225</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.06240485219846657</v>
+        <v>0.01386774493299256</v>
       </c>
       <c r="C40">
-        <v>0.00425088</v>
+        <v>0.0009446399999999998</v>
       </c>
       <c r="D40">
-        <v>0.003008260406773524</v>
+        <v>0.0006685023126163396</v>
       </c>
       <c r="E40">
-        <v>0.02610863735631243</v>
+        <v>0.005801919412513882</v>
       </c>
       <c r="F40">
-        <v>0.008454972263646688</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G40">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I40">
-        <v>0.1325442487261144</v>
+        <v>0.02945427749469208</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.1647488098039516</v>
+        <v>0.03661084662310034</v>
       </c>
       <c r="C41">
-        <v>0.00425088</v>
+        <v>0.0009446399999999998</v>
       </c>
       <c r="D41">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="E41">
-        <v>0.01566518241378748</v>
+        <v>0.003481151647508328</v>
       </c>
       <c r="F41">
-        <v>0.01221273771415632</v>
+        <v>0.002713941714256961</v>
       </c>
       <c r="G41">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="I41">
-        <v>0.2315639687597216</v>
+        <v>0.05145865972438257</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.4393301594772046</v>
+        <v>0.0976289243282676</v>
       </c>
       <c r="C42">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D42">
-        <v>0.05414868732192347</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E42">
-        <v>0.05743900218388739</v>
+        <v>0.01276422270753053</v>
       </c>
       <c r="F42">
-        <v>0.03945653723035118</v>
+        <v>0.008768119384522488</v>
       </c>
       <c r="G42">
-        <v>0.08494993950274543</v>
+        <v>0.01887776433394342</v>
       </c>
       <c r="I42">
-        <v>0.676387045716112</v>
+        <v>0.1503082323813581</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.7214000914142733</v>
+        <v>0.160311131425394</v>
       </c>
       <c r="C43">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="D43">
-        <v>0.06317346854224412</v>
+        <v>0.01403854856494313</v>
       </c>
       <c r="E43">
-        <v>0.1984256439079746</v>
+        <v>0.04409458753510546</v>
       </c>
       <c r="F43">
-        <v>0.08173139854858456</v>
+        <v>0.0181625330107966</v>
       </c>
       <c r="G43">
-        <v>0.1585732204051248</v>
+        <v>0.03523849342336108</v>
       </c>
       <c r="I43">
-        <v>1.229680142818201</v>
+        <v>0.2732622539596002</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.02593577014279</v>
+        <v>0.2279857266983976</v>
       </c>
       <c r="C44">
-        <v>0.0106272</v>
+        <v>0.0023616</v>
       </c>
       <c r="D44">
-        <v>0.05114042691514994</v>
+        <v>0.01136453931447775</v>
       </c>
       <c r="E44">
-        <v>0.1984256439079746</v>
+        <v>0.04409458753510546</v>
       </c>
       <c r="F44">
-        <v>0.04321430268086082</v>
+        <v>0.00960317837352463</v>
       </c>
       <c r="G44">
-        <v>0.1189299153038437</v>
+        <v>0.02642887006752082</v>
       </c>
       <c r="H44">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I44">
-        <v>1.461413785603526</v>
+        <v>0.3247586190230056</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.9835004706478321</v>
+        <v>0.2185556601439626</v>
       </c>
       <c r="C45">
-        <v>0.03400704</v>
+        <v>0.007557119999999999</v>
       </c>
       <c r="D45">
-        <v>0.07520651016933813</v>
+        <v>0.01671255781540848</v>
       </c>
       <c r="E45">
-        <v>0.1148780043677748</v>
+        <v>0.02552844541506106</v>
       </c>
       <c r="F45">
-        <v>0.07233698492231048</v>
+        <v>0.01607488553829122</v>
       </c>
       <c r="G45">
-        <v>0.2152065134069552</v>
+        <v>0.04782366964599005</v>
       </c>
       <c r="H45">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I45">
-        <v>1.527986840146478</v>
+        <v>0.3395526311436617</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.9285842007131823</v>
+        <v>0.2063520446029291</v>
       </c>
       <c r="C46">
-        <v>0.02125439999999999</v>
+        <v>0.0047232</v>
       </c>
       <c r="D46">
-        <v>0.08122303098288519</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E46">
-        <v>0.1670952790803997</v>
+        <v>0.03713228424008882</v>
       </c>
       <c r="F46">
-        <v>0.09582301898799581</v>
+        <v>0.02129400421955463</v>
       </c>
       <c r="G46">
-        <v>0.2888297943093346</v>
+        <v>0.06418439873540767</v>
       </c>
       <c r="H46">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I46">
-        <v>1.609090777379611</v>
+        <v>0.3575757283065801</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.7189038973263342</v>
+        <v>0.1597564216280743</v>
       </c>
       <c r="C47">
-        <v>0.03400704</v>
+        <v>0.007557119999999999</v>
       </c>
       <c r="D47">
-        <v>0.06016520813547058</v>
+        <v>0.01337004625232679</v>
       </c>
       <c r="E47">
-        <v>0.1409866417240872</v>
+        <v>0.03133036482757495</v>
       </c>
       <c r="F47">
-        <v>0.1183696116910535</v>
+        <v>0.02630435815356747</v>
       </c>
       <c r="G47">
-        <v>0.3114831115100667</v>
+        <v>0.06921846922445932</v>
       </c>
       <c r="H47">
-        <v>0.09855394989680225</v>
+        <v>0.02190087775484495</v>
       </c>
       <c r="I47">
-        <v>1.482469460283814</v>
+        <v>0.3294376578408478</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.7937897199644939</v>
+        <v>0.1763977155476653</v>
       </c>
       <c r="C48">
-        <v>0.04038336000000001</v>
+        <v>0.008974080000000001</v>
       </c>
       <c r="D48">
-        <v>0.1022808538302999</v>
+        <v>0.02272907862895551</v>
       </c>
       <c r="E48">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F48">
-        <v>0.09958078443850535</v>
+        <v>0.02212906320855674</v>
       </c>
       <c r="G48">
-        <v>0.2378598306076875</v>
+        <v>0.05285774013504164</v>
       </c>
       <c r="H48">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I48">
-        <v>1.412356534804193</v>
+        <v>0.3138570077342652</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.8374731165034204</v>
+        <v>0.1861051370007602</v>
       </c>
       <c r="C49">
-        <v>0.04144608</v>
+        <v>0.009210240000000001</v>
       </c>
       <c r="D49">
-        <v>0.08723955179643231</v>
+        <v>0.01938656706587385</v>
       </c>
       <c r="E49">
-        <v>0.1200997318390372</v>
+        <v>0.02668882929756385</v>
       </c>
       <c r="F49">
-        <v>0.09958078443850535</v>
+        <v>0.02212906320855674</v>
       </c>
       <c r="G49">
-        <v>0.5436796128175717</v>
+        <v>0.1208176917372379</v>
       </c>
       <c r="H49">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I49">
-        <v>1.736089140721421</v>
+        <v>0.3857975868269822</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_SOx.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.2094029484881877</v>
+        <v>0.9423132681968444</v>
       </c>
       <c r="C2">
-        <v>0.005431679999999999</v>
+        <v>0.02444256</v>
       </c>
       <c r="D2">
-        <v>0.02807709712988626</v>
+        <v>0.1263469370844882</v>
       </c>
       <c r="E2">
-        <v>0.0290095970625694</v>
+        <v>0.1305431867815622</v>
       </c>
       <c r="F2">
-        <v>0.02839200562607282</v>
+        <v>0.1277640253173277</v>
       </c>
       <c r="G2">
-        <v>0.1019399274032946</v>
+        <v>0.4587296733148255</v>
       </c>
       <c r="H2">
-        <v>0.01168046813591731</v>
+        <v>0.05256210661162788</v>
       </c>
       <c r="I2">
-        <v>0.4139337238459281</v>
+        <v>1.862701757306676</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.2152274013600445</v>
+        <v>0.9685233061201998</v>
       </c>
       <c r="C3">
-        <v>0.00684864</v>
+        <v>0.03081888</v>
       </c>
       <c r="D3">
-        <v>0.02139207400372287</v>
+        <v>0.09626433301675277</v>
       </c>
       <c r="E3">
-        <v>0.02204729376755273</v>
+        <v>0.09921282195398731</v>
       </c>
       <c r="F3">
-        <v>0.02734818188982013</v>
+        <v>0.1230668185041906</v>
       </c>
       <c r="G3">
-        <v>0.08557919831387695</v>
+        <v>0.3851063924124459</v>
       </c>
       <c r="H3">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I3">
-        <v>0.3857430819199654</v>
+        <v>1.735843868639844</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.2199424346372617</v>
+        <v>0.9897409558676784</v>
       </c>
       <c r="C4">
-        <v>0.007557119999999999</v>
+        <v>0.03400704</v>
       </c>
       <c r="D4">
-        <v>0.01537555319017581</v>
+        <v>0.0691899893557912</v>
       </c>
       <c r="E4">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F4">
-        <v>0.02588682865906641</v>
+        <v>0.1164907289657988</v>
       </c>
       <c r="G4">
-        <v>0.04278959915693847</v>
+        <v>0.192553196206223</v>
       </c>
       <c r="H4">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I4">
-        <v>0.3490218091734628</v>
+        <v>1.570598141280584</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.2388025677461317</v>
+        <v>1.074611554857592</v>
       </c>
       <c r="C5">
-        <v>0.00684864</v>
+        <v>0.03081888</v>
       </c>
       <c r="D5">
-        <v>0.0240660832541882</v>
+        <v>0.1082973746438469</v>
       </c>
       <c r="E5">
-        <v>0.03597190035758604</v>
+        <v>0.1618735516091371</v>
       </c>
       <c r="F5">
-        <v>0.01920635674704926</v>
+        <v>0.08642860536172164</v>
       </c>
       <c r="G5">
-        <v>0.0276873876897837</v>
+        <v>0.1245932446040268</v>
       </c>
       <c r="H5">
-        <v>0.01168046813591731</v>
+        <v>0.05256210661162788</v>
       </c>
       <c r="I5">
-        <v>0.3642634039306562</v>
+        <v>1.639185317687953</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>0.2865076103156261</v>
+        <v>1.289284246420317</v>
       </c>
       <c r="C6">
-        <v>0.007793279999999995</v>
+        <v>0.03506976000000001</v>
       </c>
       <c r="D6">
-        <v>0.0220605763163392</v>
+        <v>0.09927259342352641</v>
       </c>
       <c r="E6">
-        <v>0.02552844541506106</v>
+        <v>0.1148780043677748</v>
       </c>
       <c r="F6">
-        <v>0.01523982654928909</v>
+        <v>0.06857921947180098</v>
       </c>
       <c r="G6">
-        <v>0.01636072908941764</v>
+        <v>0.07362328090237945</v>
       </c>
       <c r="H6">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I6">
-        <v>0.3764105847197124</v>
+        <v>1.693847631238706</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.2485099891992266</v>
+        <v>1.118294951396519</v>
       </c>
       <c r="C7">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D7">
-        <v>0.02139207400372287</v>
+        <v>0.09626433301675277</v>
       </c>
       <c r="E7">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F7">
-        <v>0.008768119384522488</v>
+        <v>0.03945653723035118</v>
       </c>
       <c r="G7">
-        <v>0.01258517622262897</v>
+        <v>0.05663329300183031</v>
       </c>
       <c r="H7">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I7">
-        <v>0.3364420317316774</v>
+        <v>1.513989142792547</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.1983087525417936</v>
+        <v>0.892389386438071</v>
       </c>
       <c r="C8">
-        <v>0.006140159999999997</v>
+        <v>0.02763072</v>
       </c>
       <c r="D8">
-        <v>0.01136453931447775</v>
+        <v>0.05114042691514994</v>
       </c>
       <c r="E8">
-        <v>0.03365113259258048</v>
+        <v>0.1514300966666122</v>
       </c>
       <c r="F8">
-        <v>0.0100207078680257</v>
+        <v>0.04509318540611564</v>
       </c>
       <c r="G8">
-        <v>0.01510221146715474</v>
+        <v>0.06795995160219646</v>
       </c>
       <c r="H8">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I8">
-        <v>0.2804277378519909</v>
+        <v>1.261924820333959</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.1741788763583866</v>
+        <v>0.7838049436127391</v>
       </c>
       <c r="C9">
-        <v>0.009446400000000001</v>
+        <v>0.04250879999999999</v>
       </c>
       <c r="D9">
-        <v>0.01337004625232679</v>
+        <v>0.06016520813547058</v>
       </c>
       <c r="E9">
-        <v>0.05105689083012212</v>
+        <v>0.2297560087355496</v>
       </c>
       <c r="F9">
-        <v>0.006054177670265523</v>
+        <v>0.02724379951619489</v>
       </c>
       <c r="G9">
-        <v>0.02139479957846924</v>
+        <v>0.09627659810311148</v>
       </c>
       <c r="H9">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I9">
-        <v>0.2784213077235496</v>
+        <v>1.252895884755973</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.1533772589588979</v>
+        <v>0.6901976653150391</v>
       </c>
       <c r="C10">
-        <v>0.004014719999999999</v>
+        <v>0.01806624</v>
       </c>
       <c r="D10">
-        <v>0.01002753468924509</v>
+        <v>0.04512390610160293</v>
       </c>
       <c r="E10">
-        <v>0.03133036482757495</v>
+        <v>0.1409866417240872</v>
       </c>
       <c r="F10">
-        <v>0.005845412923014994</v>
+        <v>0.02630435815356747</v>
       </c>
       <c r="G10">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="H10">
-        <v>0.00876035110193798</v>
+        <v>0.03942157995872091</v>
       </c>
       <c r="I10">
-        <v>0.224682301101037</v>
+        <v>1.011070354954665</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.08653472838187354</v>
+        <v>0.3894062777184306</v>
       </c>
       <c r="C11">
-        <v>0.00188928</v>
+        <v>0.008501760000000001</v>
       </c>
       <c r="D11">
-        <v>0.003342511563081699</v>
+        <v>0.01504130203386764</v>
       </c>
       <c r="E11">
-        <v>0.02088690988504996</v>
+        <v>0.09399109448272484</v>
       </c>
       <c r="F11">
-        <v>0.005219118681263382</v>
+        <v>0.02348603406568521</v>
       </c>
       <c r="G11">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="H11">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I11">
-        <v>0.1314654292075314</v>
+        <v>0.5915944314338908</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.0593539483132081</v>
+        <v>0.2670927674094364</v>
       </c>
       <c r="C12">
-        <v>0.00188928</v>
+        <v>0.008501760000000001</v>
       </c>
       <c r="D12">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E12">
-        <v>0.008122687177519426</v>
+        <v>0.03655209229883743</v>
       </c>
       <c r="F12">
-        <v>0.002505176967006425</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G12">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="H12">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I12">
-        <v>0.08249928923123025</v>
+        <v>0.3712468015405361</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.03661084662310034</v>
+        <v>0.1647488098039516</v>
       </c>
       <c r="C13">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D13">
-        <v>0.0006685023126163396</v>
+        <v>0.003008260406773524</v>
       </c>
       <c r="F13">
-        <v>0.002296412219755889</v>
+        <v>0.01033385498890151</v>
       </c>
       <c r="G13">
-        <v>0.003775552866788684</v>
+        <v>0.01698998790054912</v>
       </c>
       <c r="H13">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I13">
-        <v>0.04646449253925092</v>
+        <v>0.2090902164266293</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.02967697415660405</v>
+        <v>0.1335463837047182</v>
       </c>
       <c r="C14">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D14">
-        <v>0.003342511563081699</v>
+        <v>0.01504130203386764</v>
       </c>
       <c r="F14">
-        <v>0.002922706461507497</v>
+        <v>0.01315217907678374</v>
       </c>
       <c r="G14">
-        <v>0.003775552866788684</v>
+        <v>0.01698998790054912</v>
       </c>
       <c r="H14">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I14">
-        <v>0.04476330208196126</v>
+        <v>0.2014348593688257</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.02218839189278811</v>
+        <v>0.09984776351754646</v>
       </c>
       <c r="C15">
-        <v>0.0011808</v>
+        <v>0.005313599999999998</v>
       </c>
       <c r="D15">
-        <v>0.001337004625232679</v>
+        <v>0.006016520813547048</v>
       </c>
       <c r="F15">
-        <v>0.001878882725254819</v>
+        <v>0.008454972263646688</v>
       </c>
       <c r="G15">
-        <v>0.007551105733577368</v>
+        <v>0.03397997580109823</v>
       </c>
       <c r="I15">
-        <v>0.03413618497685297</v>
+        <v>0.1536128323958384</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.01913748800752973</v>
+        <v>0.08611869603388375</v>
       </c>
       <c r="C16">
-        <v>0.0011808</v>
+        <v>0.005313599999999998</v>
       </c>
       <c r="D16">
-        <v>0.001337004625232679</v>
+        <v>0.006016520813547048</v>
       </c>
       <c r="E16">
-        <v>0.005801919412513882</v>
+        <v>0.02610863735631243</v>
       </c>
       <c r="F16">
-        <v>0.001670117978004283</v>
+        <v>0.007515530901019277</v>
       </c>
       <c r="G16">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I16">
-        <v>0.03541991813459506</v>
+        <v>0.1593896316056777</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.03661084662310034</v>
+        <v>0.1647488098039516</v>
       </c>
       <c r="C17">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="D17">
-        <v>0.005348018500930717</v>
+        <v>0.02406608325418819</v>
       </c>
       <c r="E17">
-        <v>0.001160383882502776</v>
+        <v>0.00522172747126249</v>
       </c>
       <c r="F17">
-        <v>0.003340235956008565</v>
+        <v>0.01503106180203855</v>
       </c>
       <c r="G17">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I17">
-        <v>0.05416903307385688</v>
+        <v>0.243760648832356</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.1220361554103344</v>
+        <v>0.5491626993465053</v>
       </c>
       <c r="C18">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D18">
-        <v>0.01537555319017581</v>
+        <v>0.0691899893557912</v>
       </c>
       <c r="E18">
-        <v>0.009283071060022205</v>
+        <v>0.04177381977009992</v>
       </c>
       <c r="F18">
-        <v>0.01022947261527624</v>
+        <v>0.04603262676874306</v>
       </c>
       <c r="G18">
-        <v>0.02391183482299503</v>
+        <v>0.1076032567034776</v>
       </c>
       <c r="H18">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I18">
-        <v>0.1844215856157934</v>
+        <v>0.8298971352710707</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.193593719264576</v>
+        <v>0.8711717366905926</v>
       </c>
       <c r="C19">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D19">
-        <v>0.01738106012802482</v>
+        <v>0.07821477057611168</v>
       </c>
       <c r="E19">
-        <v>0.04989650694761939</v>
+        <v>0.224534281264287</v>
       </c>
       <c r="F19">
-        <v>0.01732747402179444</v>
+        <v>0.07797363309807492</v>
       </c>
       <c r="G19">
-        <v>0.03649701104562398</v>
+        <v>0.1642365497053079</v>
       </c>
       <c r="H19">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I19">
-        <v>0.3207290669586076</v>
+        <v>1.443280801313735</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.2351969540635537</v>
+        <v>1.058386293285992</v>
       </c>
       <c r="C20">
-        <v>0.004014719999999999</v>
+        <v>0.01806624</v>
       </c>
       <c r="D20">
-        <v>0.01403854856494313</v>
+        <v>0.06317346854224412</v>
       </c>
       <c r="E20">
-        <v>0.04409458753510546</v>
+        <v>0.1984256439079746</v>
       </c>
       <c r="F20">
-        <v>0.0135697085712848</v>
+        <v>0.06106368857078159</v>
       </c>
       <c r="G20">
-        <v>0.0276873876897837</v>
+        <v>0.1245932446040268</v>
       </c>
       <c r="I20">
-        <v>0.3386019064246708</v>
+        <v>1.523708578911019</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.2535023773751036</v>
+        <v>1.140760698187968</v>
       </c>
       <c r="C21">
-        <v>0.005431679999999999</v>
+        <v>0.02444256</v>
       </c>
       <c r="D21">
-        <v>0.02272907862895551</v>
+        <v>0.1022808538302999</v>
       </c>
       <c r="E21">
-        <v>0.03597190035758604</v>
+        <v>0.1618735516091371</v>
       </c>
       <c r="F21">
-        <v>0.01628365028554177</v>
+        <v>0.07327642628493793</v>
       </c>
       <c r="G21">
-        <v>0.03397997580109823</v>
+        <v>0.1529098911049417</v>
       </c>
       <c r="H21">
-        <v>0.01314052665290697</v>
+        <v>0.05913236993808137</v>
       </c>
       <c r="I21">
-        <v>0.3810391891011922</v>
+        <v>1.714676350955367</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.2232706934211801</v>
+        <v>1.004718120395311</v>
       </c>
       <c r="C22">
-        <v>0.007557119999999999</v>
+        <v>0.03400704</v>
       </c>
       <c r="D22">
-        <v>0.02941410175511895</v>
+        <v>0.1323634578980352</v>
       </c>
       <c r="E22">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F22">
-        <v>0.02672188764806852</v>
+        <v>0.1202484944163084</v>
       </c>
       <c r="G22">
-        <v>0.07676957495803666</v>
+        <v>0.3454630873111646</v>
       </c>
       <c r="H22">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I22">
-        <v>0.399743592795435</v>
+        <v>1.798846167579459</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.18638249189942</v>
+        <v>0.8387212135473904</v>
       </c>
       <c r="C23">
-        <v>0.00684864</v>
+        <v>0.03081888</v>
       </c>
       <c r="D23">
-        <v>0.01403854856494313</v>
+        <v>0.06317346854224412</v>
       </c>
       <c r="E23">
-        <v>0.02668882929756385</v>
+        <v>0.1200997318390372</v>
       </c>
       <c r="F23">
-        <v>0.02818324087882229</v>
+        <v>0.1268245839547003</v>
       </c>
       <c r="G23">
-        <v>0.09816437453650578</v>
+        <v>0.441739685414276</v>
       </c>
       <c r="H23">
-        <v>0.01168046813591731</v>
+        <v>0.05256210661162788</v>
       </c>
       <c r="I23">
-        <v>0.3719865933131724</v>
+        <v>1.673939669909276</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.1733468116624069</v>
+        <v>0.7800606524808318</v>
       </c>
       <c r="C24">
-        <v>0.00684864</v>
+        <v>0.03081888</v>
       </c>
       <c r="D24">
-        <v>0.01604405550279214</v>
+        <v>0.07219824976256468</v>
       </c>
       <c r="E24">
-        <v>0.02552844541506106</v>
+        <v>0.1148780043677748</v>
       </c>
       <c r="F24">
-        <v>0.02693065239531907</v>
+        <v>0.1211879357789358</v>
       </c>
       <c r="G24">
-        <v>0.1170421388704493</v>
+        <v>0.5266896249170223</v>
       </c>
       <c r="H24">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I24">
-        <v>0.3730410364309768</v>
+        <v>1.678684663939397</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.1861051370007602</v>
+        <v>0.8374731165034204</v>
       </c>
       <c r="C25">
-        <v>0.009210240000000001</v>
+        <v>0.04144608</v>
       </c>
       <c r="D25">
-        <v>0.01938656706587385</v>
+        <v>0.08723955179643231</v>
       </c>
       <c r="E25">
-        <v>0.02668882929756385</v>
+        <v>0.1200997318390372</v>
       </c>
       <c r="F25">
-        <v>0.02212906320855674</v>
+        <v>0.09958078443850535</v>
       </c>
       <c r="G25">
-        <v>0.1208176917372379</v>
+        <v>0.5436796128175717</v>
       </c>
       <c r="H25">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I25">
-        <v>0.3857975868269822</v>
+        <v>1.736089140721421</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.2071841092989087</v>
+        <v>0.9323284918450897</v>
       </c>
       <c r="C26">
-        <v>0.01109952</v>
+        <v>0.04994784000000001</v>
       </c>
       <c r="D26">
-        <v>0.02540308787942089</v>
+        <v>0.114313895457394</v>
       </c>
       <c r="E26">
-        <v>0.02436806153255829</v>
+        <v>0.1096562768965122</v>
       </c>
       <c r="F26">
-        <v>0.02588682865906641</v>
+        <v>0.1164907289657988</v>
       </c>
       <c r="G26">
-        <v>0.1120080683813978</v>
+        <v>0.5040363077162896</v>
       </c>
       <c r="H26">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I26">
-        <v>0.4117899098193107</v>
+        <v>1.853054594186898</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.2046879152109702</v>
+        <v>0.9210956184493649</v>
       </c>
       <c r="C27">
-        <v>0.01015488</v>
+        <v>0.04569695999999999</v>
       </c>
       <c r="D27">
-        <v>0.02339758094157188</v>
+        <v>0.1052891142370734</v>
       </c>
       <c r="E27">
-        <v>0.02204729376755273</v>
+        <v>0.09921282195398731</v>
       </c>
       <c r="F27">
-        <v>0.02609559340631692</v>
+        <v>0.1174301703284262</v>
       </c>
       <c r="G27">
-        <v>0.07676957495803666</v>
+        <v>0.3454630873111646</v>
       </c>
       <c r="H27">
-        <v>0.02482099478882428</v>
+        <v>0.1116944765497093</v>
       </c>
       <c r="I27">
-        <v>0.3879738330732727</v>
+        <v>1.745882248829726</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.2135632719680853</v>
+        <v>0.9610347238563851</v>
       </c>
       <c r="C28">
-        <v>0.009918720000000002</v>
+        <v>0.04463424000000001</v>
       </c>
       <c r="D28">
-        <v>0.02540308787942089</v>
+        <v>0.114313895457394</v>
       </c>
       <c r="E28">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F28">
-        <v>0.02526053441731478</v>
+        <v>0.1136724048779165</v>
       </c>
       <c r="G28">
-        <v>0.09438882166971718</v>
+        <v>0.4247496975137269</v>
       </c>
       <c r="H28">
-        <v>0.01022040961892764</v>
+        <v>0.04599184328517441</v>
       </c>
       <c r="I28">
-        <v>0.4066040587335324</v>
+        <v>1.829718264300897</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.1996955270350929</v>
+        <v>0.8986298716579175</v>
       </c>
       <c r="C29">
-        <v>0.008501760000000001</v>
+        <v>0.03825792</v>
       </c>
       <c r="D29">
-        <v>0.02272907862895551</v>
+        <v>0.1022808538302999</v>
       </c>
       <c r="E29">
-        <v>0.03133036482757495</v>
+        <v>0.1409866417240872</v>
       </c>
       <c r="F29">
-        <v>0.01732747402179444</v>
+        <v>0.07797363309807492</v>
       </c>
       <c r="G29">
-        <v>0.07676957495803666</v>
+        <v>0.3454630873111646</v>
       </c>
       <c r="H29">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I29">
-        <v>0.3636540720564028</v>
+        <v>1.636443324253812</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>0.2271536620024182</v>
+        <v>1.022191479010881</v>
       </c>
       <c r="C30">
-        <v>0.003778559999999999</v>
+        <v>0.01700352</v>
       </c>
       <c r="D30">
-        <v>0.02607159019203724</v>
+        <v>0.1173221558641675</v>
       </c>
       <c r="E30">
-        <v>0.02204729376755273</v>
+        <v>0.09921282195398731</v>
       </c>
       <c r="F30">
-        <v>0.01670117978004283</v>
+        <v>0.07515530901019273</v>
       </c>
       <c r="G30">
-        <v>0.07299402209124796</v>
+        <v>0.3284730994106158</v>
       </c>
       <c r="H30">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I30">
-        <v>0.3716664248672782</v>
+        <v>1.672498911902751</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.2213292091305613</v>
+        <v>0.995981441087525</v>
       </c>
       <c r="C31">
-        <v>0.0004723199999999999</v>
+        <v>0.00212544</v>
       </c>
       <c r="D31">
-        <v>0.01136453931447775</v>
+        <v>0.05114042691514994</v>
       </c>
       <c r="E31">
-        <v>0.04177381977009992</v>
+        <v>0.1879821889654497</v>
       </c>
       <c r="F31">
-        <v>0.008768119384522488</v>
+        <v>0.03945653723035118</v>
       </c>
       <c r="G31">
-        <v>0.05663329300183031</v>
+        <v>0.2548498185082363</v>
       </c>
       <c r="I31">
-        <v>0.3403413006014918</v>
+        <v>1.531535852706712</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.1969219780484943</v>
+        <v>0.8861489012182244</v>
       </c>
       <c r="C32">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D32">
-        <v>0.01470705087755948</v>
+        <v>0.06618172894901758</v>
       </c>
       <c r="E32">
-        <v>0.04873612306511657</v>
+        <v>0.2193125537930244</v>
       </c>
       <c r="F32">
-        <v>0.009185648879023555</v>
+        <v>0.04133541995560603</v>
       </c>
       <c r="G32">
-        <v>0.04404811677920138</v>
+        <v>0.1982165255064061</v>
       </c>
       <c r="I32">
-        <v>0.3157243576493953</v>
+        <v>1.420759609422279</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.1569828726414758</v>
+        <v>0.7064229268866407</v>
       </c>
       <c r="C33">
-        <v>0.003778559999999999</v>
+        <v>0.01700352</v>
       </c>
       <c r="D33">
-        <v>0.01537555319017581</v>
+        <v>0.0691899893557912</v>
       </c>
       <c r="E33">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F33">
-        <v>0.005219118681263382</v>
+        <v>0.02348603406568521</v>
       </c>
       <c r="G33">
-        <v>0.01887776433394342</v>
+        <v>0.08494993950274543</v>
       </c>
       <c r="I33">
-        <v>0.2408473047344555</v>
+        <v>1.08381287130505</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.1237002848022937</v>
+        <v>0.5566512816103214</v>
       </c>
       <c r="C34">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D34">
-        <v>0.009359032376628754</v>
+        <v>0.04211564569482933</v>
       </c>
       <c r="E34">
-        <v>0.03365113259258048</v>
+        <v>0.1514300966666122</v>
       </c>
       <c r="F34">
-        <v>0.002713941714256961</v>
+        <v>0.01221273771415632</v>
       </c>
       <c r="G34">
-        <v>0.01761924671168054</v>
+        <v>0.07928661020256238</v>
       </c>
       <c r="I34">
-        <v>0.1891690781974404</v>
+        <v>0.8512608518884816</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.08126498530733638</v>
+        <v>0.3656924338830138</v>
       </c>
       <c r="C35">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D35">
-        <v>0.004679516188314377</v>
+        <v>0.02105782284741466</v>
       </c>
       <c r="E35">
-        <v>0.02320767765005553</v>
+        <v>0.1044345494252497</v>
       </c>
       <c r="F35">
-        <v>0.004384059692261244</v>
+        <v>0.01972826861517559</v>
       </c>
       <c r="G35">
-        <v>0.02642887006752082</v>
+        <v>0.1189299153038437</v>
       </c>
       <c r="I35">
-        <v>0.1416182289054883</v>
+        <v>0.6372820300746975</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.05824452871856875</v>
+        <v>0.2621003792335596</v>
       </c>
       <c r="C36">
-        <v>0.0009446399999999998</v>
+        <v>0.00425088</v>
       </c>
       <c r="D36">
-        <v>0.004011013875698034</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E36">
-        <v>0.009283071060022205</v>
+        <v>0.04177381977009992</v>
       </c>
       <c r="F36">
-        <v>0.003131471208758032</v>
+        <v>0.01409162043941115</v>
       </c>
       <c r="G36">
-        <v>0.01384369384489185</v>
+        <v>0.0622966223020134</v>
       </c>
       <c r="H36">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I36">
-        <v>0.09091847722492852</v>
+        <v>0.4091331475121787</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.03522407212980108</v>
+        <v>0.1585083245841048</v>
       </c>
       <c r="C37">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="E37">
-        <v>0.001160383882502776</v>
+        <v>0.00522172747126249</v>
       </c>
       <c r="F37">
-        <v>0.003131471208758032</v>
+        <v>0.01409162043941115</v>
       </c>
       <c r="G37">
-        <v>0.01510221146715474</v>
+        <v>0.06795995160219646</v>
       </c>
       <c r="I37">
-        <v>0.05532661868821662</v>
+        <v>0.2489697840969749</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.02496194087938661</v>
+        <v>0.1123287339572397</v>
       </c>
       <c r="C38">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="D38">
-        <v>0.002005506937849017</v>
+        <v>0.009024781220320586</v>
       </c>
       <c r="E38">
-        <v>0.001160383882502776</v>
+        <v>0.00522172747126249</v>
       </c>
       <c r="F38">
-        <v>0.003340235956008565</v>
+        <v>0.01503106180203855</v>
       </c>
       <c r="G38">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="I38">
-        <v>0.03791909814479856</v>
+        <v>0.1706359416515935</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.01719600371691077</v>
+        <v>0.07738201672609846</v>
       </c>
       <c r="C39">
-        <v>0.0004723199999999999</v>
+        <v>0.00212544</v>
       </c>
       <c r="D39">
-        <v>0.003342511563081699</v>
+        <v>0.01504130203386764</v>
       </c>
       <c r="F39">
-        <v>0.0004175294945010707</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G39">
-        <v>0.01258517622262897</v>
+        <v>0.05663329300183031</v>
       </c>
       <c r="I39">
-        <v>0.0340135409971225</v>
+        <v>0.1530609344870512</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.01386774493299256</v>
+        <v>0.06240485219846657</v>
       </c>
       <c r="C40">
-        <v>0.0009446399999999998</v>
+        <v>0.00425088</v>
       </c>
       <c r="D40">
-        <v>0.0006685023126163396</v>
+        <v>0.003008260406773524</v>
       </c>
       <c r="E40">
-        <v>0.005801919412513882</v>
+        <v>0.02610863735631243</v>
       </c>
       <c r="F40">
-        <v>0.001878882725254819</v>
+        <v>0.008454972263646688</v>
       </c>
       <c r="G40">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I40">
-        <v>0.02945427749469208</v>
+        <v>0.1325442487261144</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.03661084662310034</v>
+        <v>0.1647488098039516</v>
       </c>
       <c r="C41">
-        <v>0.0009446399999999998</v>
+        <v>0.00425088</v>
       </c>
       <c r="D41">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E41">
-        <v>0.003481151647508328</v>
+        <v>0.01566518241378748</v>
       </c>
       <c r="F41">
-        <v>0.002713941714256961</v>
+        <v>0.01221273771415632</v>
       </c>
       <c r="G41">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="I41">
-        <v>0.05145865972438257</v>
+        <v>0.2315639687597216</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.0976289243282676</v>
+        <v>0.4393301594772046</v>
       </c>
       <c r="C42">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D42">
-        <v>0.0120330416270941</v>
+        <v>0.05414868732192347</v>
       </c>
       <c r="E42">
-        <v>0.01276422270753053</v>
+        <v>0.05743900218388739</v>
       </c>
       <c r="F42">
-        <v>0.008768119384522488</v>
+        <v>0.03945653723035118</v>
       </c>
       <c r="G42">
-        <v>0.01887776433394342</v>
+        <v>0.08494993950274543</v>
       </c>
       <c r="I42">
-        <v>0.1503082323813581</v>
+        <v>0.676387045716112</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.160311131425394</v>
+        <v>0.7214000914142733</v>
       </c>
       <c r="C43">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="D43">
-        <v>0.01403854856494313</v>
+        <v>0.06317346854224412</v>
       </c>
       <c r="E43">
-        <v>0.04409458753510546</v>
+        <v>0.1984256439079746</v>
       </c>
       <c r="F43">
-        <v>0.0181625330107966</v>
+        <v>0.08173139854858456</v>
       </c>
       <c r="G43">
-        <v>0.03523849342336108</v>
+        <v>0.1585732204051248</v>
       </c>
       <c r="I43">
-        <v>0.2732622539596002</v>
+        <v>1.229680142818201</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.2279857266983976</v>
+        <v>1.02593577014279</v>
       </c>
       <c r="C44">
-        <v>0.0023616</v>
+        <v>0.0106272</v>
       </c>
       <c r="D44">
-        <v>0.01136453931447775</v>
+        <v>0.05114042691514994</v>
       </c>
       <c r="E44">
-        <v>0.04409458753510546</v>
+        <v>0.1984256439079746</v>
       </c>
       <c r="F44">
-        <v>0.00960317837352463</v>
+        <v>0.04321430268086082</v>
       </c>
       <c r="G44">
-        <v>0.02642887006752082</v>
+        <v>0.1189299153038437</v>
       </c>
       <c r="H44">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I44">
-        <v>0.3247586190230056</v>
+        <v>1.461413785603526</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.2185556601439626</v>
+        <v>0.9835004706478321</v>
       </c>
       <c r="C45">
-        <v>0.007557119999999999</v>
+        <v>0.03400704</v>
       </c>
       <c r="D45">
-        <v>0.01671255781540848</v>
+        <v>0.07520651016933813</v>
       </c>
       <c r="E45">
-        <v>0.02552844541506106</v>
+        <v>0.1148780043677748</v>
       </c>
       <c r="F45">
-        <v>0.01607488553829122</v>
+        <v>0.07233698492231048</v>
       </c>
       <c r="G45">
-        <v>0.04782366964599005</v>
+        <v>0.2152065134069552</v>
       </c>
       <c r="H45">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I45">
-        <v>0.3395526311436617</v>
+        <v>1.527986840146478</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.2063520446029291</v>
+        <v>0.9285842007131823</v>
       </c>
       <c r="C46">
-        <v>0.0047232</v>
+        <v>0.02125439999999999</v>
       </c>
       <c r="D46">
-        <v>0.01804956244064117</v>
+        <v>0.08122303098288519</v>
       </c>
       <c r="E46">
-        <v>0.03713228424008882</v>
+        <v>0.1670952790803997</v>
       </c>
       <c r="F46">
-        <v>0.02129400421955463</v>
+        <v>0.09582301898799581</v>
       </c>
       <c r="G46">
-        <v>0.06418439873540767</v>
+        <v>0.2888297943093346</v>
       </c>
       <c r="H46">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I46">
-        <v>0.3575757283065801</v>
+        <v>1.609090777379611</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.1597564216280743</v>
+        <v>0.7189038973263342</v>
       </c>
       <c r="C47">
-        <v>0.007557119999999999</v>
+        <v>0.03400704</v>
       </c>
       <c r="D47">
-        <v>0.01337004625232679</v>
+        <v>0.06016520813547058</v>
       </c>
       <c r="E47">
-        <v>0.03133036482757495</v>
+        <v>0.1409866417240872</v>
       </c>
       <c r="F47">
-        <v>0.02630435815356747</v>
+        <v>0.1183696116910535</v>
       </c>
       <c r="G47">
-        <v>0.06921846922445932</v>
+        <v>0.3114831115100667</v>
       </c>
       <c r="H47">
-        <v>0.02190087775484495</v>
+        <v>0.09855394989680225</v>
       </c>
       <c r="I47">
-        <v>0.3294376578408478</v>
+        <v>1.482469460283814</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.1763977155476653</v>
+        <v>0.7937897199644939</v>
       </c>
       <c r="C48">
-        <v>0.008974080000000001</v>
+        <v>0.04038336000000001</v>
       </c>
       <c r="D48">
-        <v>0.02272907862895551</v>
+        <v>0.1022808538302999</v>
       </c>
       <c r="E48">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F48">
-        <v>0.02212906320855674</v>
+        <v>0.09958078443850535</v>
       </c>
       <c r="G48">
-        <v>0.05285774013504164</v>
+        <v>0.2378598306076875</v>
       </c>
       <c r="H48">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I48">
-        <v>0.3138570077342652</v>
+        <v>1.412356534804193</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.1861051370007602</v>
+        <v>0.8374731165034204</v>
       </c>
       <c r="C49">
-        <v>0.009210240000000001</v>
+        <v>0.04144608</v>
       </c>
       <c r="D49">
-        <v>0.01938656706587385</v>
+        <v>0.08723955179643231</v>
       </c>
       <c r="E49">
-        <v>0.02668882929756385</v>
+        <v>0.1200997318390372</v>
       </c>
       <c r="F49">
-        <v>0.02212906320855674</v>
+        <v>0.09958078443850535</v>
       </c>
       <c r="G49">
-        <v>0.1208176917372379</v>
+        <v>0.5436796128175717</v>
       </c>
       <c r="H49">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I49">
-        <v>0.3857975868269822</v>
+        <v>1.736089140721421</v>
       </c>
     </row>
   </sheetData>
